--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -76,41 +76,54 @@
     <t>罗健</t>
   </si>
   <si>
-    <t>陈平</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1.演唱会互动我的排名自动刷新贡献值优化调测
 2.缓存技术Guava的研习与分享</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>20171009</t>
+  </si>
+  <si>
+    <t>20171013</t>
+  </si>
+  <si>
+    <t>后端对歌手主页相关业务对于内容组件的七个接口的调用方式由dsf改为http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +134,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -138,12 +145,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -163,35 +164,163 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +329,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -239,85 +554,374 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,377 +1208,386 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>20171009</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>20171013</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="F15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="16"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.联调音乐视频等接口
+2.开发调试MIGUMS缓存前置页面</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -118,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,10 +168,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,22 +212,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,72 +237,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -283,12 +252,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -305,8 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,8 +301,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,187 +332,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,26 +546,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +570,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -605,6 +605,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,45 +643,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,143 +661,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -832,9 +823,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,7 +1205,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1311,7 +1299,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="6" t="s">
@@ -1364,7 +1352,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1392,7 +1380,7 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1404,7 +1392,7 @@
       <c r="F9" s="6">
         <v>20171013</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -1426,10 +1414,10 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="45" customHeight="1" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1442,10 +1430,18 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1454,15 +1450,15 @@
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>23</v>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
@@ -1473,15 +1469,15 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -1491,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1509,26 +1505,26 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>29</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="8:8">
-      <c r="H17" s="20"/>
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,7 +1546,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>项目名称</t>
   </si>
@@ -119,6 +119,14 @@
     <t>1.演唱会互动我的排名自动刷新贡献值优化调测
 2.缓存技术Guava的研习与分享
 3.灰度管理功能开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点唱活动开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +612,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,10 +881,18 @@
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="4">
+        <v>20171009</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20171013</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20171013周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -83,10 +88,6 @@
   </si>
   <si>
     <t>张文韬</t>
-  </si>
-  <si>
-    <t>1.联调音乐视频等接口
-2.开发调试MIGUMS缓存前置页面</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -129,12 +130,25 @@
     <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>1.联调音乐视频等接口
+2.开发调试MIGUMS缓存前置页面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.联调趣玩乐接口</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +206,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +334,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -317,6 +352,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,9 +436,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,7 +684,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,10 +872,10 @@
         <v>20171013</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -819,10 +891,18 @@
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="4">
+        <v>20171009</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20171013</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -844,7 +924,7 @@
         <v>20171013</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>19</v>
@@ -858,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -876,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
@@ -888,10 +968,10 @@
         <v>20171013</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -902,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -920,19 +1000,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>19</v>
@@ -944,7 +1024,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -960,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20171013周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -117,12 +112,6 @@
     <t>代码，文档</t>
   </si>
   <si>
-    <t>1.演唱会互动我的排名自动刷新贡献值优化调测
-2.缓存技术Guava的研习与分享
-3.灰度管理功能开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>点唱活动开发</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -141,13 +130,19 @@
   </si>
   <si>
     <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.演唱会互动我的排名自动刷新贡献值优化调测
+2.缓存技术Guava的研习与分享
+3.灰度停止发布回滚发布优化</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,17 +324,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -403,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,26 +431,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,23 +466,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,7 +645,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,7 +833,7 @@
         <v>20171013</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>30</v>
@@ -897,11 +858,11 @@
       <c r="F10" s="4">
         <v>20171013</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -924,7 +885,7 @@
         <v>20171013</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>19</v>
@@ -968,10 +929,10 @@
         <v>20171013</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -1039,39 +1000,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20171013周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -117,12 +112,6 @@
     <t>代码，文档</t>
   </si>
   <si>
-    <t>1.演唱会互动我的排名自动刷新贡献值优化调测
-2.缓存技术Guava的研习与分享
-3.灰度管理功能开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>点唱活动开发</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -141,13 +130,19 @@
   </si>
   <si>
     <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.演唱会互动我的排名自动刷新贡献值优化调测
+2.缓存技术Guava的研习与分享
+3.灰度停止发布回滚发布优化</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,17 +324,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -403,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,26 +431,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,23 +466,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,7 +645,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,7 +833,7 @@
         <v>20171013</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>30</v>
@@ -897,11 +858,11 @@
       <c r="F10" s="4">
         <v>20171013</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -924,7 +885,7 @@
         <v>20171013</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>19</v>
@@ -968,10 +929,10 @@
         <v>20171013</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -1039,39 +1000,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20171013周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -83,9 +88,6 @@
   </si>
   <si>
     <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
   </si>
   <si>
     <t>曾昌林</t>
@@ -138,11 +140,20 @@
 3.灰度停止发布回滚发布优化</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>李春荣</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.联调MV子界面接口
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +442,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,7 +690,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,10 +878,10 @@
         <v>20171013</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -859,10 +904,10 @@
         <v>20171013</v>
       </c>
       <c r="G10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -885,29 +930,37 @@
         <v>20171013</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20171009</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20171013</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -917,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
@@ -929,10 +982,10 @@
         <v>20171013</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -943,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -961,19 +1014,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>19</v>
@@ -1001,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20171013周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -75,86 +70,83 @@
     <t>陈毅昌</t>
   </si>
   <si>
+    <t>1.配合前端进行联调
+2.增加banner曝光id位
+3.修改彩铃、新歌、新碟、歌单推荐的模板</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>王琪</t>
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>陈平</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>20171009</t>
-  </si>
-  <si>
-    <t>20171013</t>
-  </si>
-  <si>
-    <t>后端对歌手主页相关业务对于内容组件的七个接口的调用方式由dsf改为http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>代码，文档</t>
-  </si>
-  <si>
-    <t>点唱活动开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.联调音乐视频等接口
-2.开发调试MIGUMS缓存前置页面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.联调趣玩乐接口</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.演唱会互动我的排名自动刷新贡献值优化调测
 2.缓存技术Guava的研习与分享
 3.灰度停止发布回滚发布优化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>1.联调趣玩乐接口</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.联调音乐视频等接口
+2.开发调试MIGUMS缓存前置页面</t>
   </si>
   <si>
     <t>李春荣</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.联调MV子界面接口
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>点唱活动开发</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>20171009</t>
+  </si>
+  <si>
+    <t>20171013</t>
+  </si>
+  <si>
+    <t>后端对歌手主页相关业务对于内容组件的七个接口的调用方式由dsf改为http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,40 +187,169 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +358,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -276,18 +583,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,6 +872,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -335,32 +896,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,26 +1035,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,23 +1070,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,417 +1240,426 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="6">
         <v>20171009</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F11" s="6">
         <v>20171013</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="17"/>
+      <c r="H15" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>项目名称</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>北京烽火</t>
+  </si>
+  <si>
+    <t>榜单重构和联调</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>杜智恒</t>
@@ -75,10 +81,12 @@
 3.修改彩铃、新歌、新碟、歌单推荐的模板</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>王琪</t>
+  </si>
+  <si>
+    <t>1IP黑名单、URL黑名单限制优化（灰度）
+2辅助前段测试
+3趣玩乐联调</t>
   </si>
   <si>
     <t>罗健</t>
@@ -134,19 +142,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1IP黑名单、URL黑名单限制优化（灰度）
-2辅助前段测试
-3趣玩乐联调</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,38 +195,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +353,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -266,18 +578,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,16 +849,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,12 +867,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -331,19 +885,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -361,7 +956,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -634,427 +1229,436 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.1833333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.225" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E9" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E10" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E11" s="6">
         <v>20171009</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="6">
         <v>20171013</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="E12" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171009</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171013</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
       <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>杜智恒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.设计开发网关项目管理接口5个                                    </t>
+  </si>
+  <si>
+    <t>代码，文档</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -95,9 +101,6 @@
     <t>1.演唱会互动我的排名自动刷新贡献值优化调测
 2.缓存技术Guava的研习与分享
 3.灰度停止发布回滚发布优化</t>
-  </si>
-  <si>
-    <t>代码，文档</t>
   </si>
   <si>
     <t>陈平</t>
@@ -149,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -196,22 +199,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,110 +297,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,19 +362,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,163 +488,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,17 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,50 +590,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +610,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -676,154 +653,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,7 +953,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1238,7 +1235,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1319,10 +1316,18 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1332,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1350,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1368,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1386,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1398,7 +1403,7 @@
         <v>20171013</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>13</v>
@@ -1412,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1420,7 +1425,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1432,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1444,10 +1449,10 @@
         <v>20171013</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1458,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1470,7 +1475,7 @@
         <v>20171013</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
@@ -1484,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1496,7 +1501,7 @@
         <v>20171013</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>13</v>
@@ -1510,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1522,7 +1527,7 @@
         <v>20171013</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>13</v>
@@ -1536,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1548,7 +1553,7 @@
         <v>20171013</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>13</v>
@@ -1562,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1580,19 +1585,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>13</v>
@@ -1621,7 +1626,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
+++ b/20171013周报/技术支撑服务人员周报日报-20171013.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t>1、协助点唱活动开发（解析栏目）
+2、协助测试人员测试</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -198,6 +202,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -212,11 +268,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,46 +283,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,14 +322,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,45 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,181 +366,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,11 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,7 +599,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +619,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,21 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -662,27 +677,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,136 +695,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1235,7 +1239,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1559,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="34.5" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1572,10 +1576,18 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="6">
+        <v>20171009</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171013</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" ht="34.5" spans="1:8">
       <c r="A15" s="7" t="s">
@@ -1585,19 +1597,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>13</v>
@@ -1626,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
